--- a/docs/[61C SU22] Project 3B ROM Control Logic.xlsx
+++ b/docs/[61C SU22] Project 3B ROM Control Logic.xlsx
@@ -120,7 +120,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="426" uniqueCount="118">
   <si>
     <t>MAKE A COPY OF THIS SHEET</t>
   </si>
@@ -353,6 +353,9 @@
     <t>0b0000011</t>
   </si>
   <si>
+    <t>00</t>
+  </si>
+  <si>
     <t>lh rd, offset(rs1)</t>
   </si>
   <si>
@@ -395,6 +398,9 @@
     <t>0b0100011</t>
   </si>
   <si>
+    <t>001</t>
+  </si>
+  <si>
     <t>sh rs2, offset(rs1)</t>
   </si>
   <si>
@@ -437,12 +443,18 @@
     <t>0b0010111</t>
   </si>
   <si>
+    <t>011</t>
+  </si>
+  <si>
     <t>lui rd, offset</t>
   </si>
   <si>
     <t>0b0110111</t>
   </si>
   <si>
+    <t>1111</t>
+  </si>
+  <si>
     <t>jal rd, imm</t>
   </si>
   <si>
@@ -450,6 +462,12 @@
   </si>
   <si>
     <t>0b1101111</t>
+  </si>
+  <si>
+    <t>100</t>
+  </si>
+  <si>
+    <t>10</t>
   </si>
   <si>
     <t>jalr rd, rs1, imm</t>
@@ -463,9 +481,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="33">
@@ -555,8 +573,24 @@
       <charset val="134"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF0000FF"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -577,39 +611,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <i/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="0"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -632,7 +643,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -646,6 +657,28 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="Arial"/>
@@ -653,9 +686,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -671,36 +719,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -750,13 +768,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -768,7 +810,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -780,19 +870,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -804,19 +924,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -828,43 +936,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -876,61 +948,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -981,7 +999,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -997,32 +1015,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1044,9 +1036,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1055,155 +1049,179 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="26" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="28" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="11" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="31" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1562,11 +1580,11 @@
   <dimension ref="A1:W40"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane xSplit="1" ySplit="4" topLeftCell="B19" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="4" topLeftCell="B21" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="L31" sqref="L31:L36"/>
+      <selection pane="bottomRight" activeCell="I43" sqref="I43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6285714285714" defaultRowHeight="15.75" customHeight="1"/>
@@ -2653,33 +2671,49 @@
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="H17" s="20"/>
-      <c r="I17" s="20"/>
-      <c r="J17" s="20"/>
-      <c r="K17" s="20"/>
-      <c r="L17" s="20"/>
-      <c r="M17" s="20"/>
-      <c r="N17" s="20"/>
-      <c r="O17" s="20"/>
+      <c r="H17" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="I17" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="J17" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="K17" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="L17" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="M17" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="N17" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="O17" s="20" t="s">
+        <v>77</v>
+      </c>
       <c r="P17" s="28" t="str">
         <f t="shared" si="1"/>
-        <v>0000</v>
+        <v>0041</v>
       </c>
       <c r="Q17" s="31" t="str">
         <f t="shared" si="2"/>
-        <v/>
+        <v>0000000001000001</v>
       </c>
       <c r="R17" s="31" t="str">
         <f t="shared" si="3"/>
-        <v/>
+        <v>01000001</v>
       </c>
       <c r="S17" s="31" t="str">
         <f t="shared" si="4"/>
-        <v/>
+        <v>00000000</v>
       </c>
       <c r="T17" s="31" t="str">
         <f t="shared" ref="T17:U17" si="18">BIN2HEX(R17,2)</f>
-        <v>00</v>
+        <v>41</v>
       </c>
       <c r="U17" s="33" t="str">
         <f t="shared" si="18"/>
@@ -2695,7 +2729,7 @@
     </row>
     <row r="18" customHeight="1" spans="1:23">
       <c r="A18" s="5" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D18" s="8" t="s">
         <v>50</v>
@@ -2709,33 +2743,49 @@
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="H18" s="20"/>
-      <c r="I18" s="20"/>
-      <c r="J18" s="20"/>
-      <c r="K18" s="20"/>
-      <c r="L18" s="20"/>
-      <c r="M18" s="20"/>
-      <c r="N18" s="20"/>
-      <c r="O18" s="20"/>
+      <c r="H18" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="I18" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="J18" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="K18" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="L18" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="M18" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="N18" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="O18" s="20" t="s">
+        <v>77</v>
+      </c>
       <c r="P18" s="28" t="str">
         <f t="shared" si="1"/>
-        <v>0000</v>
+        <v>0041</v>
       </c>
       <c r="Q18" s="31" t="str">
         <f t="shared" si="2"/>
-        <v/>
+        <v>0000000001000001</v>
       </c>
       <c r="R18" s="31" t="str">
         <f t="shared" si="3"/>
-        <v/>
+        <v>01000001</v>
       </c>
       <c r="S18" s="31" t="str">
         <f t="shared" si="4"/>
-        <v/>
+        <v>00000000</v>
       </c>
       <c r="T18" s="31" t="str">
         <f t="shared" ref="T18:U18" si="19">BIN2HEX(R18,2)</f>
-        <v>00</v>
+        <v>41</v>
       </c>
       <c r="U18" s="33" t="str">
         <f t="shared" si="19"/>
@@ -2751,7 +2801,7 @@
     </row>
     <row r="19" customHeight="1" spans="1:23">
       <c r="A19" s="5" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D19" s="7" t="s">
         <v>58</v>
@@ -2765,33 +2815,49 @@
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="H19" s="20"/>
-      <c r="I19" s="20"/>
-      <c r="J19" s="20"/>
-      <c r="K19" s="20"/>
-      <c r="L19" s="20"/>
-      <c r="M19" s="20"/>
-      <c r="N19" s="20"/>
-      <c r="O19" s="20"/>
+      <c r="H19" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="I19" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="J19" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="K19" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="L19" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="M19" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="N19" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="O19" s="20" t="s">
+        <v>77</v>
+      </c>
       <c r="P19" s="28" t="str">
         <f t="shared" si="1"/>
-        <v>0000</v>
+        <v>0041</v>
       </c>
       <c r="Q19" s="31" t="str">
         <f t="shared" si="2"/>
-        <v/>
+        <v>0000000001000001</v>
       </c>
       <c r="R19" s="31" t="str">
         <f t="shared" si="3"/>
-        <v/>
+        <v>01000001</v>
       </c>
       <c r="S19" s="31" t="str">
         <f t="shared" si="4"/>
-        <v/>
+        <v>00000000</v>
       </c>
       <c r="T19" s="31" t="str">
         <f t="shared" ref="T19:U19" si="20">BIN2HEX(R19,2)</f>
-        <v>00</v>
+        <v>41</v>
       </c>
       <c r="U19" s="33" t="str">
         <f t="shared" si="20"/>
@@ -2807,10 +2873,10 @@
     </row>
     <row r="20" customHeight="1" spans="1:23">
       <c r="A20" s="5" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D20" s="7" t="s">
         <v>36</v>
@@ -2882,7 +2948,7 @@
     </row>
     <row r="21" customHeight="1" spans="1:23">
       <c r="A21" s="5" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D21" s="8" t="s">
         <v>50</v>
@@ -2898,37 +2964,53 @@
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="H21" s="20"/>
-      <c r="I21" s="20"/>
-      <c r="J21" s="20"/>
-      <c r="K21" s="20"/>
-      <c r="L21" s="20"/>
-      <c r="M21" s="20"/>
-      <c r="N21" s="20"/>
-      <c r="O21" s="20"/>
+      <c r="H21" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="I21" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="J21" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="K21" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="L21" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="M21" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="N21" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="O21" s="20" t="s">
+        <v>42</v>
+      </c>
       <c r="P21" s="28" t="str">
         <f t="shared" si="1"/>
-        <v>0000</v>
+        <v>10C1</v>
       </c>
       <c r="Q21" s="31" t="str">
         <f t="shared" si="2"/>
-        <v/>
+        <v>0001000011000001</v>
       </c>
       <c r="R21" s="31" t="str">
         <f t="shared" si="3"/>
-        <v/>
+        <v>11000001</v>
       </c>
       <c r="S21" s="31" t="str">
         <f t="shared" si="4"/>
-        <v/>
+        <v>00010000</v>
       </c>
       <c r="T21" s="31" t="str">
         <f t="shared" ref="T21:U21" si="22">BIN2HEX(R21,2)</f>
-        <v>00</v>
+        <v>C1</v>
       </c>
       <c r="U21" s="33" t="str">
         <f t="shared" si="22"/>
-        <v>00</v>
+        <v>10</v>
       </c>
       <c r="V21" s="30">
         <v>16</v>
@@ -2940,7 +3022,7 @@
     </row>
     <row r="22" customHeight="1" spans="1:23">
       <c r="A22" s="5" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D22" s="7" t="s">
         <v>58</v>
@@ -2954,37 +3036,53 @@
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="H22" s="20"/>
-      <c r="I22" s="20"/>
-      <c r="J22" s="20"/>
-      <c r="K22" s="20"/>
-      <c r="L22" s="20"/>
-      <c r="M22" s="20"/>
-      <c r="N22" s="20"/>
-      <c r="O22" s="20"/>
+      <c r="H22" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="I22" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="J22" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="K22" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="L22" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="M22" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="N22" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="O22" s="20" t="s">
+        <v>42</v>
+      </c>
       <c r="P22" s="28" t="str">
         <f t="shared" si="1"/>
-        <v>0000</v>
+        <v>1141</v>
       </c>
       <c r="Q22" s="31" t="str">
         <f t="shared" si="2"/>
-        <v/>
+        <v>0001000101000001</v>
       </c>
       <c r="R22" s="31" t="str">
         <f t="shared" si="3"/>
-        <v/>
+        <v>01000001</v>
       </c>
       <c r="S22" s="31" t="str">
         <f t="shared" si="4"/>
-        <v/>
+        <v>00010001</v>
       </c>
       <c r="T22" s="31" t="str">
         <f t="shared" ref="T22:U22" si="23">BIN2HEX(R22,2)</f>
-        <v>00</v>
+        <v>41</v>
       </c>
       <c r="U22" s="33" t="str">
         <f t="shared" si="23"/>
-        <v>00</v>
+        <v>11</v>
       </c>
       <c r="V22" s="30">
         <v>17</v>
@@ -2996,7 +3094,7 @@
     </row>
     <row r="23" customHeight="1" spans="1:23">
       <c r="A23" s="5" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D23" s="8" t="s">
         <v>61</v>
@@ -3010,37 +3108,53 @@
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="H23" s="20"/>
-      <c r="I23" s="20"/>
-      <c r="J23" s="20"/>
-      <c r="K23" s="20"/>
-      <c r="L23" s="20"/>
-      <c r="M23" s="20"/>
-      <c r="N23" s="20"/>
-      <c r="O23" s="20"/>
+      <c r="H23" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="I23" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="J23" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="K23" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="L23" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="M23" s="20" t="s">
+        <v>62</v>
+      </c>
+      <c r="N23" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="O23" s="20" t="s">
+        <v>42</v>
+      </c>
       <c r="P23" s="28" t="str">
         <f t="shared" si="1"/>
-        <v>0000</v>
+        <v>1241</v>
       </c>
       <c r="Q23" s="31" t="str">
         <f t="shared" si="2"/>
-        <v/>
+        <v>0001001001000001</v>
       </c>
       <c r="R23" s="31" t="str">
         <f t="shared" si="3"/>
-        <v/>
+        <v>01000001</v>
       </c>
       <c r="S23" s="31" t="str">
         <f t="shared" si="4"/>
-        <v/>
+        <v>00010010</v>
       </c>
       <c r="T23" s="31" t="str">
         <f t="shared" ref="T23:U23" si="24">BIN2HEX(R23,2)</f>
-        <v>00</v>
+        <v>41</v>
       </c>
       <c r="U23" s="33" t="str">
         <f t="shared" si="24"/>
-        <v>00</v>
+        <v>12</v>
       </c>
       <c r="V23" s="30">
         <v>18</v>
@@ -3052,7 +3166,7 @@
     </row>
     <row r="24" customHeight="1" spans="1:23">
       <c r="A24" s="5" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D24" s="7" t="s">
         <v>64</v>
@@ -3068,37 +3182,53 @@
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="H24" s="20"/>
-      <c r="I24" s="20"/>
-      <c r="J24" s="20"/>
-      <c r="K24" s="20"/>
-      <c r="L24" s="20"/>
-      <c r="M24" s="20"/>
-      <c r="N24" s="20"/>
-      <c r="O24" s="20"/>
+      <c r="H24" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="I24" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="J24" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="K24" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="L24" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="M24" s="20" t="s">
+        <v>65</v>
+      </c>
+      <c r="N24" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="O24" s="20" t="s">
+        <v>42</v>
+      </c>
       <c r="P24" s="28" t="str">
         <f t="shared" si="1"/>
-        <v>0000</v>
+        <v>12C1</v>
       </c>
       <c r="Q24" s="31" t="str">
         <f t="shared" si="2"/>
-        <v/>
+        <v>0001001011000001</v>
       </c>
       <c r="R24" s="31" t="str">
         <f t="shared" si="3"/>
-        <v/>
+        <v>11000001</v>
       </c>
       <c r="S24" s="31" t="str">
         <f t="shared" si="4"/>
-        <v/>
+        <v>00010010</v>
       </c>
       <c r="T24" s="31" t="str">
         <f t="shared" ref="T24:U24" si="25">BIN2HEX(R24,2)</f>
-        <v>00</v>
+        <v>C1</v>
       </c>
       <c r="U24" s="33" t="str">
         <f t="shared" si="25"/>
-        <v>00</v>
+        <v>12</v>
       </c>
       <c r="V24" s="30">
         <v>19</v>
@@ -3110,7 +3240,7 @@
     </row>
     <row r="25" customHeight="1" spans="1:23">
       <c r="A25" s="5" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D25" s="7" t="s">
         <v>64</v>
@@ -3126,37 +3256,53 @@
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="H25" s="20"/>
-      <c r="I25" s="20"/>
-      <c r="J25" s="20"/>
-      <c r="K25" s="20"/>
-      <c r="L25" s="20"/>
-      <c r="M25" s="20"/>
-      <c r="N25" s="20"/>
-      <c r="O25" s="20"/>
+      <c r="H25" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="I25" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="J25" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="K25" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="L25" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="M25" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="N25" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="O25" s="20" t="s">
+        <v>42</v>
+      </c>
       <c r="P25" s="28" t="str">
         <f t="shared" si="1"/>
-        <v>0000</v>
+        <v>16C1</v>
       </c>
       <c r="Q25" s="31" t="str">
         <f t="shared" si="2"/>
-        <v/>
+        <v>0001011011000001</v>
       </c>
       <c r="R25" s="31" t="str">
         <f t="shared" si="3"/>
-        <v/>
+        <v>11000001</v>
       </c>
       <c r="S25" s="31" t="str">
         <f t="shared" si="4"/>
-        <v/>
+        <v>00010110</v>
       </c>
       <c r="T25" s="31" t="str">
         <f t="shared" ref="T25:U25" si="26">BIN2HEX(R25,2)</f>
-        <v>00</v>
+        <v>C1</v>
       </c>
       <c r="U25" s="33" t="str">
         <f t="shared" si="26"/>
-        <v>00</v>
+        <v>16</v>
       </c>
       <c r="V25" s="30">
         <v>20</v>
@@ -3168,7 +3314,7 @@
     </row>
     <row r="26" customHeight="1" spans="1:23">
       <c r="A26" s="5" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D26" s="7" t="s">
         <v>69</v>
@@ -3182,37 +3328,53 @@
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="H26" s="20"/>
-      <c r="I26" s="20"/>
-      <c r="J26" s="20"/>
-      <c r="K26" s="20"/>
-      <c r="L26" s="20"/>
-      <c r="M26" s="20"/>
-      <c r="N26" s="20"/>
-      <c r="O26" s="20"/>
+      <c r="H26" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="I26" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="J26" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="K26" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="L26" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="M26" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="N26" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="O26" s="20" t="s">
+        <v>42</v>
+      </c>
       <c r="P26" s="28" t="str">
         <f t="shared" si="1"/>
-        <v>0000</v>
+        <v>1341</v>
       </c>
       <c r="Q26" s="31" t="str">
         <f t="shared" si="2"/>
-        <v/>
+        <v>0001001101000001</v>
       </c>
       <c r="R26" s="31" t="str">
         <f t="shared" si="3"/>
-        <v/>
+        <v>01000001</v>
       </c>
       <c r="S26" s="31" t="str">
         <f t="shared" si="4"/>
-        <v/>
+        <v>00010011</v>
       </c>
       <c r="T26" s="31" t="str">
         <f t="shared" ref="T26:U26" si="27">BIN2HEX(R26,2)</f>
-        <v>00</v>
+        <v>41</v>
       </c>
       <c r="U26" s="33" t="str">
         <f t="shared" si="27"/>
-        <v>00</v>
+        <v>13</v>
       </c>
       <c r="V26" s="30">
         <v>21</v>
@@ -3224,7 +3386,7 @@
     </row>
     <row r="27" customHeight="1" spans="1:23">
       <c r="A27" s="5" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D27" s="7" t="s">
         <v>72</v>
@@ -3238,37 +3400,53 @@
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="H27" s="20"/>
-      <c r="I27" s="20"/>
-      <c r="J27" s="20"/>
-      <c r="K27" s="20"/>
-      <c r="L27" s="20"/>
-      <c r="M27" s="20"/>
-      <c r="N27" s="20"/>
-      <c r="O27" s="20"/>
+      <c r="H27" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="I27" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="J27" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="K27" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="L27" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="M27" s="20" t="s">
+        <v>73</v>
+      </c>
+      <c r="N27" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="O27" s="20" t="s">
+        <v>42</v>
+      </c>
       <c r="P27" s="28" t="str">
         <f t="shared" si="1"/>
-        <v>0000</v>
+        <v>13C1</v>
       </c>
       <c r="Q27" s="31" t="str">
         <f t="shared" si="2"/>
-        <v/>
+        <v>0001001111000001</v>
       </c>
       <c r="R27" s="31" t="str">
         <f t="shared" si="3"/>
-        <v/>
+        <v>11000001</v>
       </c>
       <c r="S27" s="31" t="str">
         <f t="shared" si="4"/>
-        <v/>
+        <v>00010011</v>
       </c>
       <c r="T27" s="31" t="str">
         <f t="shared" ref="T27:U27" si="28">BIN2HEX(R27,2)</f>
-        <v>00</v>
+        <v>C1</v>
       </c>
       <c r="U27" s="33" t="str">
         <f t="shared" si="28"/>
-        <v>00</v>
+        <v>13</v>
       </c>
       <c r="V27" s="30">
         <v>22</v>
@@ -3280,13 +3458,13 @@
     </row>
     <row r="28" customHeight="1" spans="1:23">
       <c r="A28" s="5" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D28" s="7" t="s">
         <v>36</v>
@@ -3300,37 +3478,53 @@
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
-      <c r="H28" s="20"/>
-      <c r="I28" s="20"/>
-      <c r="J28" s="20"/>
-      <c r="K28" s="20"/>
-      <c r="L28" s="20"/>
-      <c r="M28" s="20"/>
-      <c r="N28" s="20"/>
-      <c r="O28" s="20"/>
+      <c r="H28" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="I28" s="20" t="s">
+        <v>92</v>
+      </c>
+      <c r="J28" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="K28" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="L28" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="M28" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="N28" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="O28" s="20" t="s">
+        <v>77</v>
+      </c>
       <c r="P28" s="28" t="str">
         <f t="shared" si="1"/>
-        <v>0000</v>
+        <v>0842</v>
       </c>
       <c r="Q28" s="31" t="str">
         <f t="shared" si="2"/>
-        <v/>
+        <v>0000100001000010</v>
       </c>
       <c r="R28" s="31" t="str">
         <f t="shared" si="3"/>
-        <v/>
+        <v>01000010</v>
       </c>
       <c r="S28" s="31" t="str">
         <f t="shared" si="4"/>
-        <v/>
+        <v>00001000</v>
       </c>
       <c r="T28" s="31" t="str">
         <f t="shared" ref="T28:U28" si="29">BIN2HEX(R28,2)</f>
-        <v>00</v>
+        <v>42</v>
       </c>
       <c r="U28" s="33" t="str">
         <f t="shared" si="29"/>
-        <v>00</v>
+        <v>08</v>
       </c>
       <c r="V28" s="30">
         <v>23</v>
@@ -3342,7 +3536,7 @@
     </row>
     <row r="29" customHeight="1" spans="1:23">
       <c r="A29" s="5" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="D29" s="8" t="s">
         <v>50</v>
@@ -3356,37 +3550,53 @@
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="H29" s="20"/>
-      <c r="I29" s="20"/>
-      <c r="J29" s="20"/>
-      <c r="K29" s="20"/>
-      <c r="L29" s="20"/>
-      <c r="M29" s="20"/>
-      <c r="N29" s="20"/>
-      <c r="O29" s="20"/>
+      <c r="H29" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="I29" s="20" t="s">
+        <v>92</v>
+      </c>
+      <c r="J29" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="K29" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="L29" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="M29" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="N29" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="O29" s="20" t="s">
+        <v>77</v>
+      </c>
       <c r="P29" s="28" t="str">
         <f t="shared" si="1"/>
-        <v>0000</v>
+        <v>0842</v>
       </c>
       <c r="Q29" s="31" t="str">
         <f t="shared" si="2"/>
-        <v/>
+        <v>0000100001000010</v>
       </c>
       <c r="R29" s="31" t="str">
         <f t="shared" si="3"/>
-        <v/>
+        <v>01000010</v>
       </c>
       <c r="S29" s="31" t="str">
         <f t="shared" si="4"/>
-        <v/>
+        <v>00001000</v>
       </c>
       <c r="T29" s="31" t="str">
         <f t="shared" ref="T29:U29" si="30">BIN2HEX(R29,2)</f>
-        <v>00</v>
+        <v>42</v>
       </c>
       <c r="U29" s="33" t="str">
         <f t="shared" si="30"/>
-        <v>00</v>
+        <v>08</v>
       </c>
       <c r="V29" s="30">
         <v>24</v>
@@ -3398,7 +3608,7 @@
     </row>
     <row r="30" customHeight="1" spans="1:23">
       <c r="A30" s="5" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="D30" s="7" t="s">
         <v>58</v>
@@ -3412,37 +3622,53 @@
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
-      <c r="H30" s="20"/>
-      <c r="I30" s="20"/>
-      <c r="J30" s="20"/>
-      <c r="K30" s="20"/>
-      <c r="L30" s="20"/>
-      <c r="M30" s="20"/>
-      <c r="N30" s="20"/>
-      <c r="O30" s="20"/>
+      <c r="H30" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="I30" s="20" t="s">
+        <v>92</v>
+      </c>
+      <c r="J30" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="K30" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="L30" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="M30" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="N30" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="O30" s="20" t="s">
+        <v>77</v>
+      </c>
       <c r="P30" s="28" t="str">
         <f t="shared" si="1"/>
-        <v>0000</v>
+        <v>0842</v>
       </c>
       <c r="Q30" s="31" t="str">
         <f t="shared" si="2"/>
-        <v/>
+        <v>0000100001000010</v>
       </c>
       <c r="R30" s="31" t="str">
         <f t="shared" si="3"/>
-        <v/>
+        <v>01000010</v>
       </c>
       <c r="S30" s="31" t="str">
         <f t="shared" si="4"/>
-        <v/>
+        <v>00001000</v>
       </c>
       <c r="T30" s="31" t="str">
         <f t="shared" ref="T30:U30" si="31">BIN2HEX(R30,2)</f>
-        <v>00</v>
+        <v>42</v>
       </c>
       <c r="U30" s="33" t="str">
         <f t="shared" si="31"/>
-        <v>00</v>
+        <v>08</v>
       </c>
       <c r="V30" s="30">
         <v>25</v>
@@ -3454,13 +3680,13 @@
     </row>
     <row r="31" customHeight="1" spans="1:23">
       <c r="A31" s="5" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D31" s="7" t="s">
         <v>36</v>
@@ -3478,7 +3704,7 @@
         <v>38</v>
       </c>
       <c r="I31" s="20" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="J31" s="20" t="s">
         <v>40</v>
@@ -3532,7 +3758,7 @@
     </row>
     <row r="32" customHeight="1" spans="1:23">
       <c r="A32" s="5" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="D32" s="8" t="s">
         <v>50</v>
@@ -3550,7 +3776,7 @@
         <v>38</v>
       </c>
       <c r="I32" s="20" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="J32" s="20" t="s">
         <v>40</v>
@@ -3604,7 +3830,7 @@
     </row>
     <row r="33" customHeight="1" spans="1:23">
       <c r="A33" s="5" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="D33" s="8" t="s">
         <v>61</v>
@@ -3622,7 +3848,7 @@
         <v>38</v>
       </c>
       <c r="I33" s="20" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="J33" s="20" t="s">
         <v>40</v>
@@ -3676,7 +3902,7 @@
     </row>
     <row r="34" customHeight="1" spans="1:23">
       <c r="A34" s="5" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="D34" s="7" t="s">
         <v>64</v>
@@ -3694,7 +3920,7 @@
         <v>38</v>
       </c>
       <c r="I34" s="20" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="J34" s="20" t="s">
         <v>40</v>
@@ -3748,7 +3974,7 @@
     </row>
     <row r="35" customHeight="1" spans="1:23">
       <c r="A35" s="5" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="D35" s="7" t="s">
         <v>69</v>
@@ -3766,7 +3992,7 @@
         <v>38</v>
       </c>
       <c r="I35" s="20" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="J35" s="20" t="s">
         <v>38</v>
@@ -3820,7 +4046,7 @@
     </row>
     <row r="36" customHeight="1" spans="1:23">
       <c r="A36" s="5" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="D36" s="7" t="s">
         <v>72</v>
@@ -3838,7 +4064,7 @@
         <v>38</v>
       </c>
       <c r="I36" s="20" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="J36" s="20" t="s">
         <v>38</v>
@@ -3892,13 +4118,13 @@
     </row>
     <row r="37" customHeight="1" spans="1:23">
       <c r="A37" s="5" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C37" s="9" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="D37" s="10"/>
       <c r="E37" s="21"/>
@@ -3910,37 +4136,53 @@
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
-      <c r="H37" s="20"/>
-      <c r="I37" s="20"/>
-      <c r="J37" s="20"/>
-      <c r="K37" s="20"/>
-      <c r="L37" s="20"/>
-      <c r="M37" s="20"/>
-      <c r="N37" s="20"/>
-      <c r="O37" s="20"/>
+      <c r="H37" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="I37" s="20" t="s">
+        <v>107</v>
+      </c>
+      <c r="J37" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="K37" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="L37" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="M37" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="N37" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="O37" s="20" t="s">
+        <v>42</v>
+      </c>
       <c r="P37" s="28" t="str">
         <f t="shared" si="1"/>
-        <v>0000</v>
+        <v>1067</v>
       </c>
       <c r="Q37" s="31" t="str">
         <f t="shared" si="2"/>
-        <v/>
+        <v>0001000001100111</v>
       </c>
       <c r="R37" s="31" t="str">
         <f t="shared" si="3"/>
-        <v/>
+        <v>01100111</v>
       </c>
       <c r="S37" s="31" t="str">
         <f t="shared" si="4"/>
-        <v/>
+        <v>00010000</v>
       </c>
       <c r="T37" s="31" t="str">
         <f t="shared" ref="T37:U37" si="38">BIN2HEX(R37,2)</f>
-        <v>00</v>
+        <v>67</v>
       </c>
       <c r="U37" s="33" t="str">
         <f t="shared" si="38"/>
-        <v>00</v>
+        <v>10</v>
       </c>
       <c r="V37" s="30">
         <v>32</v>
@@ -3952,10 +4194,10 @@
     </row>
     <row r="38" customHeight="1" spans="1:23">
       <c r="A38" s="5" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="C38" s="9" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="D38" s="10"/>
       <c r="E38" s="21"/>
@@ -3967,37 +4209,53 @@
         <f t="shared" si="0"/>
         <v>33</v>
       </c>
-      <c r="H38" s="20"/>
-      <c r="I38" s="20"/>
-      <c r="J38" s="20"/>
-      <c r="K38" s="20"/>
-      <c r="L38" s="20"/>
-      <c r="M38" s="20"/>
-      <c r="N38" s="20"/>
-      <c r="O38" s="20"/>
+      <c r="H38" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="I38" s="20" t="s">
+        <v>107</v>
+      </c>
+      <c r="J38" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="K38" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="L38" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="M38" s="20" t="s">
+        <v>110</v>
+      </c>
+      <c r="N38" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="O38" s="20" t="s">
+        <v>42</v>
+      </c>
       <c r="P38" s="28" t="str">
         <f t="shared" si="1"/>
-        <v>0000</v>
+        <v>17E7</v>
       </c>
       <c r="Q38" s="31" t="str">
         <f t="shared" si="2"/>
-        <v/>
+        <v>0001011111100111</v>
       </c>
       <c r="R38" s="31" t="str">
         <f t="shared" si="3"/>
-        <v/>
+        <v>11100111</v>
       </c>
       <c r="S38" s="31" t="str">
         <f t="shared" si="4"/>
-        <v/>
+        <v>00010111</v>
       </c>
       <c r="T38" s="31" t="str">
         <f t="shared" ref="T38:U38" si="39">BIN2HEX(R38,2)</f>
-        <v>00</v>
+        <v>E7</v>
       </c>
       <c r="U38" s="33" t="str">
         <f t="shared" si="39"/>
-        <v>00</v>
+        <v>17</v>
       </c>
       <c r="V38" s="30">
         <v>33</v>
@@ -4009,13 +4267,13 @@
     </row>
     <row r="39" customHeight="1" spans="1:23">
       <c r="A39" s="5" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="C39" s="7" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="D39" s="10"/>
       <c r="E39" s="21"/>
@@ -4027,37 +4285,53 @@
         <f t="shared" si="0"/>
         <v>34</v>
       </c>
-      <c r="H39" s="20"/>
-      <c r="I39" s="20"/>
-      <c r="J39" s="20"/>
-      <c r="K39" s="20"/>
-      <c r="L39" s="20"/>
-      <c r="M39" s="20"/>
-      <c r="N39" s="20"/>
-      <c r="O39" s="20"/>
+      <c r="H39" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="I39" s="20" t="s">
+        <v>114</v>
+      </c>
+      <c r="J39" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="K39" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="L39" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="M39" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="N39" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="O39" s="20" t="s">
+        <v>115</v>
+      </c>
       <c r="P39" s="28" t="str">
         <f t="shared" si="1"/>
-        <v>0000</v>
+        <v>2069</v>
       </c>
       <c r="Q39" s="31" t="str">
         <f t="shared" si="2"/>
-        <v/>
+        <v>0010000001101001</v>
       </c>
       <c r="R39" s="31" t="str">
         <f t="shared" si="3"/>
-        <v/>
+        <v>01101001</v>
       </c>
       <c r="S39" s="31" t="str">
         <f t="shared" si="4"/>
-        <v/>
+        <v>00100000</v>
       </c>
       <c r="T39" s="31" t="str">
         <f t="shared" ref="T39:U39" si="40">BIN2HEX(R39,2)</f>
-        <v>00</v>
+        <v>69</v>
       </c>
       <c r="U39" s="33" t="str">
         <f t="shared" si="40"/>
-        <v>00</v>
+        <v>20</v>
       </c>
       <c r="V39" s="30">
         <v>34</v>
@@ -4069,13 +4343,13 @@
     </row>
     <row r="40" customHeight="1" spans="1:23">
       <c r="A40" s="5" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="B40" s="4" t="s">
         <v>75</v>
       </c>
       <c r="C40" s="7" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="D40" s="7" t="s">
         <v>36</v>
@@ -4089,37 +4363,53 @@
         <f t="shared" si="0"/>
         <v>35</v>
       </c>
-      <c r="H40" s="20"/>
-      <c r="I40" s="20"/>
-      <c r="J40" s="20"/>
-      <c r="K40" s="20"/>
-      <c r="L40" s="20"/>
-      <c r="M40" s="20"/>
-      <c r="N40" s="20"/>
-      <c r="O40" s="20"/>
+      <c r="H40" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="I40" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="J40" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="K40" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="L40" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="M40" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="N40" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="O40" s="20" t="s">
+        <v>115</v>
+      </c>
       <c r="P40" s="28" t="str">
         <f t="shared" si="1"/>
-        <v>0000</v>
+        <v>2041</v>
       </c>
       <c r="Q40" s="31" t="str">
         <f t="shared" si="2"/>
-        <v/>
+        <v>0010000001000001</v>
       </c>
       <c r="R40" s="31" t="str">
         <f t="shared" si="3"/>
-        <v/>
+        <v>01000001</v>
       </c>
       <c r="S40" s="31" t="str">
         <f t="shared" si="4"/>
-        <v/>
+        <v>00100000</v>
       </c>
       <c r="T40" s="31" t="str">
         <f t="shared" ref="T40:U40" si="41">BIN2HEX(R40,2)</f>
-        <v>00</v>
+        <v>41</v>
       </c>
       <c r="U40" s="33" t="str">
         <f t="shared" si="41"/>
-        <v>00</v>
+        <v>20</v>
       </c>
       <c r="V40" s="30">
         <v>35</v>
@@ -4160,19 +4450,19 @@
     <dataValidation type="custom" allowBlank="1" sqref="M5:M30 M31:M36 M37:M40">
       <formula1>AND(EQ(LEN(TO_TEXT(M5)),4),REGEXMATCH(TO_TEXT(M5),"[0-1]{4}"))</formula1>
     </dataValidation>
-    <dataValidation type="custom" allowBlank="1" sqref="I5:I16 I17:I30 I31:I36 I37:I40">
+    <dataValidation type="custom" allowBlank="1" sqref="I5:I15 I16:I27 I28:I30 I31:I36 I37:I40">
       <formula1>AND(EQ(LEN(TO_TEXT(I5)),3),REGEXMATCH(TO_TEXT(I5),"[0-1]{3}"))</formula1>
     </dataValidation>
     <dataValidation type="custom" allowBlank="1" sqref="O20">
       <formula1>AND(EQ(LEN(TO_TEXT(O20)),2),REGEXMATCH(TO_TEXT(O20),"[X0-1]{2}"))</formula1>
     </dataValidation>
+    <dataValidation type="custom" allowBlank="1" sqref="L20">
+      <formula1>AND(EQ(LEN(TO_TEXT(L20)),1),REGEXMATCH(TO_TEXT(L20),"[0-1X]{1}"))</formula1>
+    </dataValidation>
     <dataValidation type="custom" allowBlank="1" showInputMessage="1" prompt="Enter 1 binary digit without a leading 0b (Ex: 0)" sqref="H5:H16">
       <formula1>AND(EQ(LEN(TO_TEXT(H5)),1),REGEXMATCH(TO_TEXT(H5),"[0-1]{1}"))</formula1>
     </dataValidation>
-    <dataValidation type="custom" allowBlank="1" sqref="L20">
-      <formula1>AND(EQ(LEN(TO_TEXT(L20)),1),REGEXMATCH(TO_TEXT(L20),"[0-1X]{1}"))</formula1>
-    </dataValidation>
-    <dataValidation type="custom" allowBlank="1" sqref="J20:K20 H17:H30 H31:H36 H37:H40 J5:J16 J31:J32 J33:J36 K5:K16 K31:K36 L5:L16 L31:L36 N5:N16 N17:N30 N31:N36 N37:N40 J17:L19 J21:L30 J37:L40">
+    <dataValidation type="custom" allowBlank="1" sqref="L17 L18 L19 H17:H18 H19:H27 H28:H30 H31:H36 H37:H40 J5:J16 J17:J27 J31:J32 J33:J36 K5:K15 K16:K27 K31:K36 L5:L16 L21:L27 L31:L36 N5:N16 N17:N30 N31:N36 N37:N40 J37:L40 J28:L30">
       <formula1>AND(EQ(LEN(TO_TEXT(H5)),1),REGEXMATCH(TO_TEXT(H5),"[0-1]{1}"))</formula1>
     </dataValidation>
   </dataValidations>

--- a/docs/[61C SU22] Project 3B ROM Control Logic.xlsx
+++ b/docs/[61C SU22] Project 3B ROM Control Logic.xlsx
@@ -481,10 +481,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="33">
     <font>
@@ -573,9 +573,31 @@
       <charset val="134"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -583,6 +605,21 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
       <name val="Arial"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -596,16 +633,60 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF0000FF"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -619,23 +700,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -651,74 +718,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -768,7 +768,109 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -780,13 +882,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -798,37 +936,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -840,115 +948,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -980,17 +980,22 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1036,29 +1041,24 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1080,148 +1080,148 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="34" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="34" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="11" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="31" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="30" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1580,11 +1580,11 @@
   <dimension ref="A1:W40"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane xSplit="1" ySplit="4" topLeftCell="B21" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="4" topLeftCell="B17" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="I43" sqref="I43"/>
+      <selection pane="bottomRight" activeCell="H36" sqref="H36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6285714285714" defaultRowHeight="15.75" customHeight="1"/>
@@ -3701,7 +3701,7 @@
         <v>26</v>
       </c>
       <c r="H31" s="20" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="I31" s="20" t="s">
         <v>98</v>
@@ -3726,15 +3726,15 @@
       </c>
       <c r="P31" s="28" t="str">
         <f t="shared" si="1"/>
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="Q31" s="31" t="str">
         <f t="shared" si="2"/>
-        <v>0001000001100101</v>
+        <v>0001000001100100</v>
       </c>
       <c r="R31" s="31" t="str">
         <f t="shared" si="3"/>
-        <v>01100101</v>
+        <v>01100100</v>
       </c>
       <c r="S31" s="31" t="str">
         <f t="shared" si="4"/>
@@ -3742,7 +3742,7 @@
       </c>
       <c r="T31" s="31" t="str">
         <f t="shared" ref="T31:U31" si="32">BIN2HEX(R31,2)</f>
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="U31" s="33" t="str">
         <f t="shared" si="32"/>
@@ -3773,7 +3773,7 @@
         <v>27</v>
       </c>
       <c r="H32" s="20" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="I32" s="20" t="s">
         <v>98</v>
@@ -3798,15 +3798,15 @@
       </c>
       <c r="P32" s="28" t="str">
         <f t="shared" si="1"/>
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="Q32" s="31" t="str">
         <f t="shared" si="2"/>
-        <v>0001000001100101</v>
+        <v>0001000001100100</v>
       </c>
       <c r="R32" s="31" t="str">
         <f t="shared" si="3"/>
-        <v>01100101</v>
+        <v>01100100</v>
       </c>
       <c r="S32" s="31" t="str">
         <f t="shared" si="4"/>
@@ -3814,7 +3814,7 @@
       </c>
       <c r="T32" s="31" t="str">
         <f t="shared" ref="T32:U32" si="33">BIN2HEX(R32,2)</f>
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="U32" s="33" t="str">
         <f t="shared" si="33"/>
@@ -3845,7 +3845,7 @@
         <v>28</v>
       </c>
       <c r="H33" s="20" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="I33" s="20" t="s">
         <v>98</v>
@@ -3870,15 +3870,15 @@
       </c>
       <c r="P33" s="28" t="str">
         <f t="shared" si="1"/>
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="Q33" s="31" t="str">
         <f t="shared" si="2"/>
-        <v>0001000001100101</v>
+        <v>0001000001100100</v>
       </c>
       <c r="R33" s="31" t="str">
         <f t="shared" si="3"/>
-        <v>01100101</v>
+        <v>01100100</v>
       </c>
       <c r="S33" s="31" t="str">
         <f t="shared" si="4"/>
@@ -3886,7 +3886,7 @@
       </c>
       <c r="T33" s="31" t="str">
         <f t="shared" ref="T33:U33" si="34">BIN2HEX(R33,2)</f>
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="U33" s="33" t="str">
         <f t="shared" si="34"/>
@@ -3917,7 +3917,7 @@
         <v>29</v>
       </c>
       <c r="H34" s="20" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="I34" s="20" t="s">
         <v>98</v>
@@ -3942,15 +3942,15 @@
       </c>
       <c r="P34" s="28" t="str">
         <f t="shared" si="1"/>
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="Q34" s="31" t="str">
         <f t="shared" si="2"/>
-        <v>0001000001100101</v>
+        <v>0001000001100100</v>
       </c>
       <c r="R34" s="31" t="str">
         <f t="shared" si="3"/>
-        <v>01100101</v>
+        <v>01100100</v>
       </c>
       <c r="S34" s="31" t="str">
         <f t="shared" si="4"/>
@@ -3958,7 +3958,7 @@
       </c>
       <c r="T34" s="31" t="str">
         <f t="shared" ref="T34:U34" si="35">BIN2HEX(R34,2)</f>
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="U34" s="33" t="str">
         <f t="shared" si="35"/>
@@ -3989,7 +3989,7 @@
         <v>30</v>
       </c>
       <c r="H35" s="20" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="I35" s="20" t="s">
         <v>98</v>
@@ -4014,15 +4014,15 @@
       </c>
       <c r="P35" s="28" t="str">
         <f t="shared" si="1"/>
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="Q35" s="31" t="str">
         <f t="shared" si="2"/>
-        <v>0001000001110101</v>
+        <v>0001000001110100</v>
       </c>
       <c r="R35" s="31" t="str">
         <f t="shared" si="3"/>
-        <v>01110101</v>
+        <v>01110100</v>
       </c>
       <c r="S35" s="31" t="str">
         <f t="shared" si="4"/>
@@ -4030,7 +4030,7 @@
       </c>
       <c r="T35" s="31" t="str">
         <f t="shared" ref="T35:U35" si="36">BIN2HEX(R35,2)</f>
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="U35" s="33" t="str">
         <f t="shared" si="36"/>
@@ -4061,7 +4061,7 @@
         <v>31</v>
       </c>
       <c r="H36" s="20" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="I36" s="20" t="s">
         <v>98</v>
@@ -4086,15 +4086,15 @@
       </c>
       <c r="P36" s="28" t="str">
         <f t="shared" si="1"/>
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="Q36" s="31" t="str">
         <f t="shared" si="2"/>
-        <v>0001000001110101</v>
+        <v>0001000001110100</v>
       </c>
       <c r="R36" s="31" t="str">
         <f t="shared" si="3"/>
-        <v>01110101</v>
+        <v>01110100</v>
       </c>
       <c r="S36" s="31" t="str">
         <f t="shared" si="4"/>
@@ -4102,7 +4102,7 @@
       </c>
       <c r="T36" s="31" t="str">
         <f t="shared" ref="T36:U36" si="37">BIN2HEX(R36,2)</f>
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="U36" s="33" t="str">
         <f t="shared" si="37"/>
@@ -4444,14 +4444,14 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="7">
-    <dataValidation type="custom" allowBlank="1" sqref="O5:O16 O17:O19 O21:O30 O31:O36 O37:O40">
-      <formula1>AND(EQ(LEN(TO_TEXT(O5)),2),REGEXMATCH(TO_TEXT(O5),"[0-1]{2}"))</formula1>
-    </dataValidation>
     <dataValidation type="custom" allowBlank="1" sqref="M5:M30 M31:M36 M37:M40">
       <formula1>AND(EQ(LEN(TO_TEXT(M5)),4),REGEXMATCH(TO_TEXT(M5),"[0-1]{4}"))</formula1>
     </dataValidation>
     <dataValidation type="custom" allowBlank="1" sqref="I5:I15 I16:I27 I28:I30 I31:I36 I37:I40">
       <formula1>AND(EQ(LEN(TO_TEXT(I5)),3),REGEXMATCH(TO_TEXT(I5),"[0-1]{3}"))</formula1>
+    </dataValidation>
+    <dataValidation type="custom" allowBlank="1" showInputMessage="1" prompt="Enter 1 binary digit without a leading 0b (Ex: 0)" sqref="H5:H16">
+      <formula1>AND(EQ(LEN(TO_TEXT(H5)),1),REGEXMATCH(TO_TEXT(H5),"[0-1]{1}"))</formula1>
     </dataValidation>
     <dataValidation type="custom" allowBlank="1" sqref="O20">
       <formula1>AND(EQ(LEN(TO_TEXT(O20)),2),REGEXMATCH(TO_TEXT(O20),"[X0-1]{2}"))</formula1>
@@ -4459,8 +4459,8 @@
     <dataValidation type="custom" allowBlank="1" sqref="L20">
       <formula1>AND(EQ(LEN(TO_TEXT(L20)),1),REGEXMATCH(TO_TEXT(L20),"[0-1X]{1}"))</formula1>
     </dataValidation>
-    <dataValidation type="custom" allowBlank="1" showInputMessage="1" prompt="Enter 1 binary digit without a leading 0b (Ex: 0)" sqref="H5:H16">
-      <formula1>AND(EQ(LEN(TO_TEXT(H5)),1),REGEXMATCH(TO_TEXT(H5),"[0-1]{1}"))</formula1>
+    <dataValidation type="custom" allowBlank="1" sqref="O5:O16 O17:O19 O21:O30 O31:O36 O37:O40">
+      <formula1>AND(EQ(LEN(TO_TEXT(O5)),2),REGEXMATCH(TO_TEXT(O5),"[0-1]{2}"))</formula1>
     </dataValidation>
     <dataValidation type="custom" allowBlank="1" sqref="L17 L18 L19 H17:H18 H19:H27 H28:H30 H31:H36 H37:H40 J5:J16 J17:J27 J31:J32 J33:J36 K5:K15 K16:K27 K31:K36 L5:L16 L21:L27 L31:L36 N5:N16 N17:N30 N31:N36 N37:N40 J37:L40 J28:L30">
       <formula1>AND(EQ(LEN(TO_TEXT(H5)),1),REGEXMATCH(TO_TEXT(H5),"[0-1]{1}"))</formula1>
